--- a/Code/Results/Cases/Case_1_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001088736517278</v>
+        <v>1.02523330821534</v>
       </c>
       <c r="D2">
-        <v>1.043416260155843</v>
+        <v>1.049233876070395</v>
       </c>
       <c r="E2">
-        <v>1.00742485722621</v>
+        <v>1.025619745598501</v>
       </c>
       <c r="F2">
-        <v>1.042423335170388</v>
+        <v>1.054405761363375</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054489183079899</v>
+        <v>1.041920402842431</v>
       </c>
       <c r="J2">
-        <v>1.023236932355708</v>
+        <v>1.030403474244333</v>
       </c>
       <c r="K2">
-        <v>1.054302143361473</v>
+        <v>1.051991503114629</v>
       </c>
       <c r="L2">
-        <v>1.018781712145602</v>
+        <v>1.028444785040044</v>
       </c>
       <c r="M2">
-        <v>1.053321667262571</v>
+        <v>1.057149060950509</v>
       </c>
       <c r="N2">
-        <v>1.011709613606055</v>
+        <v>1.014179181493951</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004741687957178</v>
+        <v>1.026010584597794</v>
       </c>
       <c r="D3">
-        <v>1.046111802206841</v>
+        <v>1.049819176042703</v>
       </c>
       <c r="E3">
-        <v>1.010277934935216</v>
+        <v>1.026275040392894</v>
       </c>
       <c r="F3">
-        <v>1.045645120347354</v>
+        <v>1.055132161391283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055641462202534</v>
+        <v>1.042108586461252</v>
       </c>
       <c r="J3">
-        <v>1.025103919146257</v>
+        <v>1.03082088615185</v>
       </c>
       <c r="K3">
-        <v>1.05618680577911</v>
+        <v>1.052389594658597</v>
       </c>
       <c r="L3">
-        <v>1.020780975253693</v>
+        <v>1.028907833965634</v>
       </c>
       <c r="M3">
-        <v>1.055725465635812</v>
+        <v>1.057688919792122</v>
       </c>
       <c r="N3">
-        <v>1.012333720496793</v>
+        <v>1.014318045471715</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007063733693845</v>
+        <v>1.02651421367703</v>
       </c>
       <c r="D4">
-        <v>1.047826813749045</v>
+        <v>1.050198256978717</v>
       </c>
       <c r="E4">
-        <v>1.012097353391249</v>
+        <v>1.02670004095768</v>
       </c>
       <c r="F4">
-        <v>1.047696842043744</v>
+        <v>1.055602946767596</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056364223540637</v>
+        <v>1.042229299698878</v>
       </c>
       <c r="J4">
-        <v>1.02628845827998</v>
+        <v>1.031090985947046</v>
       </c>
       <c r="K4">
-        <v>1.057380344722131</v>
+        <v>1.052646838168191</v>
       </c>
       <c r="L4">
-        <v>1.022051934056076</v>
+        <v>1.029207754063366</v>
       </c>
       <c r="M4">
-        <v>1.057251771114256</v>
+        <v>1.058038327910411</v>
       </c>
       <c r="N4">
-        <v>1.012729623383145</v>
+        <v>1.014407876906846</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008030238177555</v>
+        <v>1.026726100109428</v>
       </c>
       <c r="D5">
-        <v>1.048540974477909</v>
+        <v>1.050357704985643</v>
       </c>
       <c r="E5">
-        <v>1.012856014551391</v>
+        <v>1.026878944102127</v>
       </c>
       <c r="F5">
-        <v>1.048551685836293</v>
+        <v>1.055801043674606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056662692198056</v>
+        <v>1.042279794231531</v>
       </c>
       <c r="J5">
-        <v>1.026780938179687</v>
+        <v>1.031204536114308</v>
       </c>
       <c r="K5">
-        <v>1.057876014250577</v>
+        <v>1.052754898413394</v>
       </c>
       <c r="L5">
-        <v>1.022580943172859</v>
+        <v>1.029333910006227</v>
       </c>
       <c r="M5">
-        <v>1.057886613448993</v>
+        <v>1.058185237200805</v>
       </c>
       <c r="N5">
-        <v>1.012894203725586</v>
+        <v>1.014445636103145</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008191958885494</v>
+        <v>1.026761686147362</v>
       </c>
       <c r="D6">
-        <v>1.048660489131623</v>
+        <v>1.05038448177852</v>
       </c>
       <c r="E6">
-        <v>1.012983037123809</v>
+        <v>1.026908996328308</v>
       </c>
       <c r="F6">
-        <v>1.048694771945868</v>
+        <v>1.055834315432572</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056712493385526</v>
+        <v>1.042288257603844</v>
       </c>
       <c r="J6">
-        <v>1.026863308913883</v>
+        <v>1.031223601661326</v>
       </c>
       <c r="K6">
-        <v>1.057958885420186</v>
+        <v>1.05277303717931</v>
       </c>
       <c r="L6">
-        <v>1.02266945896349</v>
+        <v>1.029355096179616</v>
       </c>
       <c r="M6">
-        <v>1.05799281089223</v>
+        <v>1.058209904926063</v>
       </c>
       <c r="N6">
-        <v>1.012921729788533</v>
+        <v>1.014451975676403</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007076685848009</v>
+        <v>1.026517044284526</v>
       </c>
       <c r="D7">
-        <v>1.047836383033061</v>
+        <v>1.050200387209685</v>
       </c>
       <c r="E7">
-        <v>1.012107514883242</v>
+        <v>1.026702430557544</v>
       </c>
       <c r="F7">
-        <v>1.047708294506717</v>
+        <v>1.055605593048692</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056368232719609</v>
+        <v>1.042229975405826</v>
       </c>
       <c r="J7">
-        <v>1.026295060261661</v>
+        <v>1.031092503210751</v>
       </c>
       <c r="K7">
-        <v>1.057386991670484</v>
+        <v>1.052648282410108</v>
       </c>
       <c r="L7">
-        <v>1.022059023363115</v>
+        <v>1.029209439493845</v>
       </c>
       <c r="M7">
-        <v>1.057260280493192</v>
+        <v>1.058040290850662</v>
       </c>
       <c r="N7">
-        <v>1.012731829755896</v>
+        <v>1.014408381471002</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002332072236447</v>
+        <v>1.025495850642077</v>
       </c>
       <c r="D8">
-        <v>1.044333370282278</v>
+        <v>1.049431606667321</v>
       </c>
       <c r="E8">
-        <v>1.008394705654265</v>
+        <v>1.025841001245458</v>
       </c>
       <c r="F8">
-        <v>1.043519104436643</v>
+        <v>1.054651093770568</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054883384500295</v>
+        <v>1.041984218075941</v>
       </c>
       <c r="J8">
-        <v>1.023872841641046</v>
+        <v>1.030544538442227</v>
       </c>
       <c r="K8">
-        <v>1.054944524510923</v>
+        <v>1.052126111220558</v>
       </c>
       <c r="L8">
-        <v>1.01946215343532</v>
+        <v>1.028601212336681</v>
       </c>
       <c r="M8">
-        <v>1.054140164319542</v>
+        <v>1.057331490412541</v>
       </c>
       <c r="N8">
-        <v>1.011922202906118</v>
+        <v>1.014226115672942</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936387988242517</v>
+        <v>1.02370166157443</v>
       </c>
       <c r="D9">
-        <v>1.037929760085515</v>
+        <v>1.048079709468397</v>
       </c>
       <c r="E9">
-        <v>1.001639567971201</v>
+        <v>1.024330652301043</v>
       </c>
       <c r="F9">
-        <v>1.035875313316224</v>
+        <v>1.052975033444306</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052087828775112</v>
+        <v>1.041543130664632</v>
       </c>
       <c r="J9">
-        <v>1.019418204719597</v>
+        <v>1.029579061453318</v>
       </c>
       <c r="K9">
-        <v>1.050436031673864</v>
+        <v>1.051203378748355</v>
       </c>
       <c r="L9">
-        <v>1.014706100220093</v>
+        <v>1.027531772879144</v>
       </c>
       <c r="M9">
-        <v>1.048411969586519</v>
+        <v>1.056083212974213</v>
       </c>
       <c r="N9">
-        <v>1.010432750487669</v>
+        <v>1.013904785864855</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9875996519319541</v>
+        <v>1.022509199422012</v>
       </c>
       <c r="D10">
-        <v>1.033494754768724</v>
+        <v>1.0471804450863</v>
       </c>
       <c r="E10">
-        <v>0.996981300198137</v>
+        <v>1.023328979076868</v>
       </c>
       <c r="F10">
-        <v>1.030589853495005</v>
+        <v>1.051861753992025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050097658021967</v>
+        <v>1.041243729016145</v>
       </c>
       <c r="J10">
-        <v>1.016314047369995</v>
+        <v>1.02893556050365</v>
       </c>
       <c r="K10">
-        <v>1.047284486583144</v>
+        <v>1.05058656715347</v>
       </c>
       <c r="L10">
-        <v>1.011405272945629</v>
+        <v>1.026820469105103</v>
       </c>
       <c r="M10">
-        <v>1.044427923316919</v>
+        <v>1.055251621457484</v>
       </c>
       <c r="N10">
-        <v>1.009394623050929</v>
+        <v>1.01369049039534</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9849221050634818</v>
+        <v>1.02199374259251</v>
       </c>
       <c r="D11">
-        <v>1.031532463010653</v>
+        <v>1.046791554229574</v>
       </c>
       <c r="E11">
-        <v>0.9949246956141216</v>
+        <v>1.022896507789351</v>
       </c>
       <c r="F11">
-        <v>1.028253033246316</v>
+        <v>1.051380691260786</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049204452479743</v>
+        <v>1.041112829382625</v>
       </c>
       <c r="J11">
-        <v>1.014935878765433</v>
+        <v>1.028656969758631</v>
       </c>
       <c r="K11">
-        <v>1.045883254521603</v>
+        <v>1.050319107382211</v>
       </c>
       <c r="L11">
-        <v>1.009942963665678</v>
+        <v>1.026512877742201</v>
       </c>
       <c r="M11">
-        <v>1.042661107958455</v>
+        <v>1.054891697142015</v>
       </c>
       <c r="N11">
-        <v>1.008933691917185</v>
+        <v>1.01359768610007</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.983917716943316</v>
+        <v>1.021802414154428</v>
       </c>
       <c r="D12">
-        <v>1.030797056940616</v>
+        <v>1.046647179574003</v>
       </c>
       <c r="E12">
-        <v>0.9941545879162758</v>
+        <v>1.022736059991687</v>
       </c>
       <c r="F12">
-        <v>1.027377508375106</v>
+        <v>1.051202154894442</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048867820621645</v>
+        <v>1.041064019572087</v>
       </c>
       <c r="J12">
-        <v>1.014418655126607</v>
+        <v>1.028553497518173</v>
       </c>
       <c r="K12">
-        <v>1.045357098477412</v>
+        <v>1.05021970594963</v>
       </c>
       <c r="L12">
-        <v>1.009394640239415</v>
+        <v>1.02639868737608</v>
       </c>
       <c r="M12">
-        <v>1.041998345426284</v>
+        <v>1.054758031193351</v>
       </c>
       <c r="N12">
-        <v>1.008760703254969</v>
+        <v>1.01356321298871</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9841336135072207</v>
+        <v>1.021843448606304</v>
       </c>
       <c r="D13">
-        <v>1.03095510302775</v>
+        <v>1.046678144921775</v>
       </c>
       <c r="E13">
-        <v>0.994320063081044</v>
+        <v>1.022770467900091</v>
       </c>
       <c r="F13">
-        <v>1.027565656761782</v>
+        <v>1.051240444646786</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048940251199976</v>
+        <v>1.041074497927815</v>
       </c>
       <c r="J13">
-        <v>1.014529844913511</v>
+        <v>1.028575692246748</v>
       </c>
       <c r="K13">
-        <v>1.045470220558246</v>
+        <v>1.050241030356491</v>
       </c>
       <c r="L13">
-        <v>1.009512494061742</v>
+        <v>1.026423178733339</v>
       </c>
       <c r="M13">
-        <v>1.042140807591737</v>
+        <v>1.054786701787759</v>
       </c>
       <c r="N13">
-        <v>1.008797891438195</v>
+        <v>1.01357060764666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.984839285085286</v>
+        <v>1.021977924555558</v>
       </c>
       <c r="D14">
-        <v>1.03147180855102</v>
+        <v>1.046779618598109</v>
       </c>
       <c r="E14">
-        <v>0.9948611661148969</v>
+        <v>1.022883241210337</v>
       </c>
       <c r="F14">
-        <v>1.028180817322433</v>
+        <v>1.051365930279961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049176726218069</v>
+        <v>1.041108798575199</v>
       </c>
       <c r="J14">
-        <v>1.014893234395564</v>
+        <v>1.028648416524362</v>
       </c>
       <c r="K14">
-        <v>1.045839879153647</v>
+        <v>1.050310891941001</v>
       </c>
       <c r="L14">
-        <v>1.009897745434928</v>
+        <v>1.026503437442023</v>
       </c>
       <c r="M14">
-        <v>1.042606457503889</v>
+        <v>1.054880647732381</v>
       </c>
       <c r="N14">
-        <v>1.008919429275924</v>
+        <v>1.01359483656902</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9852727570739187</v>
+        <v>1.022060797595399</v>
       </c>
       <c r="D15">
-        <v>1.031789296439417</v>
+        <v>1.046842150109207</v>
       </c>
       <c r="E15">
-        <v>0.9951937291323417</v>
+        <v>1.022952749977446</v>
       </c>
       <c r="F15">
-        <v>1.028558831974368</v>
+        <v>1.051443266297988</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04932177884355</v>
+        <v>1.041129907471581</v>
       </c>
       <c r="J15">
-        <v>1.015116420946033</v>
+        <v>1.028693225553792</v>
       </c>
       <c r="K15">
-        <v>1.046066880385381</v>
+        <v>1.050353928732382</v>
       </c>
       <c r="L15">
-        <v>1.010134422225181</v>
+        <v>1.026552895842193</v>
       </c>
       <c r="M15">
-        <v>1.042892493076004</v>
+        <v>1.054938534426762</v>
       </c>
       <c r="N15">
-        <v>1.008994075152136</v>
+        <v>1.013609764628109</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9877759977824496</v>
+        <v>1.022543427447125</v>
       </c>
       <c r="D16">
-        <v>1.033624083534763</v>
+        <v>1.047206265134796</v>
       </c>
       <c r="E16">
-        <v>0.9971169358995274</v>
+        <v>1.023357707487512</v>
       </c>
       <c r="F16">
-        <v>1.030743901259751</v>
+        <v>1.051893701694854</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050156263546352</v>
+        <v>1.041252389996923</v>
       </c>
       <c r="J16">
-        <v>1.016404778114226</v>
+        <v>1.028954050809598</v>
       </c>
       <c r="K16">
-        <v>1.047376695757983</v>
+        <v>1.050604309783654</v>
       </c>
       <c r="L16">
-        <v>1.01150160935198</v>
+        <v>1.026840891650843</v>
       </c>
       <c r="M16">
-        <v>1.044544283656039</v>
+        <v>1.055275511987177</v>
       </c>
       <c r="N16">
-        <v>1.009424967702433</v>
+        <v>1.013696649279117</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893291705914529</v>
+        <v>1.022846407254881</v>
       </c>
       <c r="D17">
-        <v>1.03476362056817</v>
+        <v>1.047434799312235</v>
       </c>
       <c r="E17">
-        <v>0.9983125517188914</v>
+        <v>1.0236120653534</v>
       </c>
       <c r="F17">
-        <v>1.032101439852023</v>
+        <v>1.052176515846446</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0506712039749</v>
+        <v>1.041328884255898</v>
       </c>
       <c r="J17">
-        <v>1.017203680457131</v>
+        <v>1.02911767377914</v>
       </c>
       <c r="K17">
-        <v>1.048188388424133</v>
+        <v>1.050761267568221</v>
       </c>
       <c r="L17">
-        <v>1.012350232847898</v>
+        <v>1.027021654058557</v>
       </c>
       <c r="M17">
-        <v>1.045569090137365</v>
+        <v>1.05548693335598</v>
       </c>
       <c r="N17">
-        <v>1.009692155439702</v>
+        <v>1.013751146599519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9902291044776154</v>
+        <v>1.023023215720863</v>
       </c>
       <c r="D18">
-        <v>1.035424265970069</v>
+        <v>1.047568147199764</v>
       </c>
       <c r="E18">
-        <v>0.9990061364885566</v>
+        <v>1.023760549413171</v>
       </c>
       <c r="F18">
-        <v>1.032888640490882</v>
+        <v>1.052341572367024</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050968534891302</v>
+        <v>1.041373380741467</v>
       </c>
       <c r="J18">
-        <v>1.017666395266862</v>
+        <v>1.029213116966615</v>
       </c>
       <c r="K18">
-        <v>1.048658316937567</v>
+        <v>1.050852781977905</v>
       </c>
       <c r="L18">
-        <v>1.012842047391799</v>
+        <v>1.027127128966363</v>
       </c>
       <c r="M18">
-        <v>1.046162834995435</v>
+        <v>1.055610267203743</v>
       </c>
       <c r="N18">
-        <v>1.009846904590624</v>
+        <v>1.013782932683507</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9905349526870117</v>
+        <v>1.023083517278218</v>
       </c>
       <c r="D19">
-        <v>1.035648852612918</v>
+        <v>1.047613623421087</v>
       </c>
       <c r="E19">
-        <v>0.9992419942568279</v>
+        <v>1.023811199173825</v>
       </c>
       <c r="F19">
-        <v>1.033156278944873</v>
+        <v>1.052397868555588</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051069407792162</v>
+        <v>1.041388532285924</v>
       </c>
       <c r="J19">
-        <v>1.017823619923235</v>
+        <v>1.029245661379605</v>
       </c>
       <c r="K19">
-        <v>1.048817958956491</v>
+        <v>1.050883979803093</v>
       </c>
       <c r="L19">
-        <v>1.013009210946957</v>
+        <v>1.027163099797114</v>
       </c>
       <c r="M19">
-        <v>1.04636461353599</v>
+        <v>1.055652323403197</v>
       </c>
       <c r="N19">
-        <v>1.009899485858928</v>
+        <v>1.013793770684814</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9891631540576079</v>
+        <v>1.022813891534643</v>
       </c>
       <c r="D20">
-        <v>1.034641777198552</v>
+        <v>1.047410274801611</v>
       </c>
       <c r="E20">
-        <v>0.9981846680527899</v>
+        <v>1.023584762588006</v>
       </c>
       <c r="F20">
-        <v>1.03195626960117</v>
+        <v>1.052146162637606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05061626956603</v>
+        <v>1.041320689687824</v>
       </c>
       <c r="J20">
-        <v>1.017118305550606</v>
+        <v>1.029100118089507</v>
       </c>
       <c r="K20">
-        <v>1.048101666635951</v>
+        <v>1.05074443123818</v>
       </c>
       <c r="L20">
-        <v>1.012259513167376</v>
+        <v>1.027002255892033</v>
       </c>
       <c r="M20">
-        <v>1.04545955419075</v>
+        <v>1.055464248243667</v>
       </c>
       <c r="N20">
-        <v>1.009663602632094</v>
+        <v>1.013745299681829</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9846317572665413</v>
+        <v>1.0219383209934</v>
       </c>
       <c r="D21">
-        <v>1.03131983362178</v>
+        <v>1.046749734994619</v>
       </c>
       <c r="E21">
-        <v>0.9947019978117183</v>
+        <v>1.022850026984415</v>
       </c>
       <c r="F21">
-        <v>1.027999877997749</v>
+        <v>1.051328973680937</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049107225342074</v>
+        <v>1.041098703067619</v>
       </c>
       <c r="J21">
-        <v>1.014786373465792</v>
+        <v>1.028627000784434</v>
       </c>
       <c r="K21">
-        <v>1.04573118207847</v>
+        <v>1.050290320950346</v>
       </c>
       <c r="L21">
-        <v>1.009784442470146</v>
+        <v>1.026479801508274</v>
       </c>
       <c r="M21">
-        <v>1.042469516187693</v>
+        <v>1.054852982261275</v>
       </c>
       <c r="N21">
-        <v>1.008883689028334</v>
+        <v>1.013587701791833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9817255959093689</v>
+        <v>1.021388598086351</v>
       </c>
       <c r="D22">
-        <v>1.029193331400739</v>
+        <v>1.046334872349068</v>
       </c>
       <c r="E22">
-        <v>0.9924763383737135</v>
+        <v>1.022389177315232</v>
       </c>
       <c r="F22">
-        <v>1.025468642750396</v>
+        <v>1.050816053682144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048130266662584</v>
+        <v>1.040958044850485</v>
       </c>
       <c r="J22">
-        <v>1.013289366046805</v>
+        <v>1.028329584540765</v>
       </c>
       <c r="K22">
-        <v>1.044207829137219</v>
+        <v>1.050004486552596</v>
       </c>
       <c r="L22">
-        <v>1.008198328534754</v>
+        <v>1.02615167755326</v>
       </c>
       <c r="M22">
-        <v>1.040551899788721</v>
+        <v>1.054468806248915</v>
       </c>
       <c r="N22">
-        <v>1.008383003670783</v>
+        <v>1.013488605510493</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9832717685631364</v>
+        <v>1.021679941743979</v>
       </c>
       <c r="D23">
-        <v>1.030324298659294</v>
+        <v>1.046554756003802</v>
       </c>
       <c r="E23">
-        <v>0.9936596994269057</v>
+        <v>1.022633376767795</v>
       </c>
       <c r="F23">
-        <v>1.026814739936393</v>
+        <v>1.051087878172724</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048650885972367</v>
+        <v>1.041032713094266</v>
       </c>
       <c r="J23">
-        <v>1.014085948226744</v>
+        <v>1.028487245200175</v>
       </c>
       <c r="K23">
-        <v>1.045018571288139</v>
+        <v>1.050156042322806</v>
       </c>
       <c r="L23">
-        <v>1.009042063053294</v>
+        <v>1.026325587286058</v>
       </c>
       <c r="M23">
-        <v>1.041572112244581</v>
+        <v>1.054672450264106</v>
       </c>
       <c r="N23">
-        <v>1.008649426992634</v>
+        <v>1.013541138944315</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892381883112982</v>
+        <v>1.022828583725153</v>
       </c>
       <c r="D24">
-        <v>1.034696845402183</v>
+        <v>1.047421356225006</v>
       </c>
       <c r="E24">
-        <v>0.9982424648952118</v>
+        <v>1.023597099157561</v>
       </c>
       <c r="F24">
-        <v>1.032021880072553</v>
+        <v>1.052159877650414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050641101399978</v>
+        <v>1.041324392835391</v>
       </c>
       <c r="J24">
-        <v>1.017156892891731</v>
+        <v>1.029108050735701</v>
       </c>
       <c r="K24">
-        <v>1.048140863338503</v>
+        <v>1.050752038963723</v>
       </c>
       <c r="L24">
-        <v>1.012300515278388</v>
+        <v>1.027011020967411</v>
       </c>
       <c r="M24">
-        <v>1.045509061138478</v>
+        <v>1.055474498622303</v>
       </c>
       <c r="N24">
-        <v>1.009676507802187</v>
+        <v>1.013747941656277</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9959276316386794</v>
+        <v>1.024164864788166</v>
       </c>
       <c r="D25">
-        <v>1.039613676044277</v>
+        <v>1.048428863699417</v>
       </c>
       <c r="E25">
-        <v>1.00341232158478</v>
+        <v>1.024720201095</v>
       </c>
       <c r="F25">
-        <v>1.037883804308578</v>
+        <v>1.053407623428549</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05283237268479</v>
+        <v>1.041658108286049</v>
       </c>
       <c r="J25">
-        <v>1.020592828782752</v>
+        <v>1.029828639633769</v>
       </c>
       <c r="K25">
-        <v>1.051626660064393</v>
+        <v>1.051442225894203</v>
       </c>
       <c r="L25">
-        <v>1.015957895604086</v>
+        <v>1.027807963065092</v>
       </c>
       <c r="M25">
-        <v>1.049921169369986</v>
+        <v>1.056405826035482</v>
       </c>
       <c r="N25">
-        <v>1.010825543906267</v>
+        <v>1.013987872699545</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02523330821534</v>
+        <v>1.001088736517278</v>
       </c>
       <c r="D2">
-        <v>1.049233876070395</v>
+        <v>1.043416260155843</v>
       </c>
       <c r="E2">
-        <v>1.025619745598501</v>
+        <v>1.007424857226209</v>
       </c>
       <c r="F2">
-        <v>1.054405761363375</v>
+        <v>1.042423335170387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041920402842431</v>
+        <v>1.054489183079899</v>
       </c>
       <c r="J2">
-        <v>1.030403474244333</v>
+        <v>1.023236932355707</v>
       </c>
       <c r="K2">
-        <v>1.051991503114629</v>
+        <v>1.054302143361473</v>
       </c>
       <c r="L2">
-        <v>1.028444785040044</v>
+        <v>1.018781712145601</v>
       </c>
       <c r="M2">
-        <v>1.057149060950509</v>
+        <v>1.05332166726257</v>
       </c>
       <c r="N2">
-        <v>1.014179181493951</v>
+        <v>1.011709613606055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026010584597794</v>
+        <v>1.004741687957178</v>
       </c>
       <c r="D3">
-        <v>1.049819176042703</v>
+        <v>1.046111802206841</v>
       </c>
       <c r="E3">
-        <v>1.026275040392894</v>
+        <v>1.010277934935215</v>
       </c>
       <c r="F3">
-        <v>1.055132161391283</v>
+        <v>1.045645120347354</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042108586461252</v>
+        <v>1.055641462202534</v>
       </c>
       <c r="J3">
-        <v>1.03082088615185</v>
+        <v>1.025103919146257</v>
       </c>
       <c r="K3">
-        <v>1.052389594658597</v>
+        <v>1.05618680577911</v>
       </c>
       <c r="L3">
-        <v>1.028907833965634</v>
+        <v>1.020780975253692</v>
       </c>
       <c r="M3">
-        <v>1.057688919792122</v>
+        <v>1.055725465635811</v>
       </c>
       <c r="N3">
-        <v>1.014318045471715</v>
+        <v>1.012333720496793</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02651421367703</v>
+        <v>1.007063733693844</v>
       </c>
       <c r="D4">
-        <v>1.050198256978717</v>
+        <v>1.047826813749045</v>
       </c>
       <c r="E4">
-        <v>1.02670004095768</v>
+        <v>1.012097353391249</v>
       </c>
       <c r="F4">
-        <v>1.055602946767596</v>
+        <v>1.047696842043744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042229299698878</v>
+        <v>1.056364223540637</v>
       </c>
       <c r="J4">
-        <v>1.031090985947046</v>
+        <v>1.026288458279979</v>
       </c>
       <c r="K4">
-        <v>1.052646838168191</v>
+        <v>1.057380344722131</v>
       </c>
       <c r="L4">
-        <v>1.029207754063366</v>
+        <v>1.022051934056075</v>
       </c>
       <c r="M4">
-        <v>1.058038327910411</v>
+        <v>1.057251771114256</v>
       </c>
       <c r="N4">
-        <v>1.014407876906846</v>
+        <v>1.012729623383145</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026726100109428</v>
+        <v>1.008030238177555</v>
       </c>
       <c r="D5">
-        <v>1.050357704985643</v>
+        <v>1.048540974477909</v>
       </c>
       <c r="E5">
-        <v>1.026878944102127</v>
+        <v>1.012856014551391</v>
       </c>
       <c r="F5">
-        <v>1.055801043674606</v>
+        <v>1.048551685836293</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042279794231531</v>
+        <v>1.056662692198056</v>
       </c>
       <c r="J5">
-        <v>1.031204536114308</v>
+        <v>1.026780938179687</v>
       </c>
       <c r="K5">
-        <v>1.052754898413394</v>
+        <v>1.057876014250576</v>
       </c>
       <c r="L5">
-        <v>1.029333910006227</v>
+        <v>1.022580943172859</v>
       </c>
       <c r="M5">
-        <v>1.058185237200805</v>
+        <v>1.057886613448993</v>
       </c>
       <c r="N5">
-        <v>1.014445636103145</v>
+        <v>1.012894203725586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026761686147362</v>
+        <v>1.008191958885493</v>
       </c>
       <c r="D6">
-        <v>1.05038448177852</v>
+        <v>1.048660489131623</v>
       </c>
       <c r="E6">
-        <v>1.026908996328308</v>
+        <v>1.012983037123809</v>
       </c>
       <c r="F6">
-        <v>1.055834315432572</v>
+        <v>1.048694771945868</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042288257603844</v>
+        <v>1.056712493385526</v>
       </c>
       <c r="J6">
-        <v>1.031223601661326</v>
+        <v>1.026863308913882</v>
       </c>
       <c r="K6">
-        <v>1.05277303717931</v>
+        <v>1.057958885420186</v>
       </c>
       <c r="L6">
-        <v>1.029355096179616</v>
+        <v>1.02266945896349</v>
       </c>
       <c r="M6">
-        <v>1.058209904926063</v>
+        <v>1.057992810892229</v>
       </c>
       <c r="N6">
-        <v>1.014451975676403</v>
+        <v>1.012921729788533</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026517044284526</v>
+        <v>1.007076685848008</v>
       </c>
       <c r="D7">
-        <v>1.050200387209685</v>
+        <v>1.047836383033061</v>
       </c>
       <c r="E7">
-        <v>1.026702430557544</v>
+        <v>1.012107514883241</v>
       </c>
       <c r="F7">
-        <v>1.055605593048692</v>
+        <v>1.047708294506716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042229975405826</v>
+        <v>1.056368232719609</v>
       </c>
       <c r="J7">
-        <v>1.031092503210751</v>
+        <v>1.02629506026166</v>
       </c>
       <c r="K7">
-        <v>1.052648282410108</v>
+        <v>1.057386991670484</v>
       </c>
       <c r="L7">
-        <v>1.029209439493845</v>
+        <v>1.022059023363114</v>
       </c>
       <c r="M7">
-        <v>1.058040290850662</v>
+        <v>1.057260280493192</v>
       </c>
       <c r="N7">
-        <v>1.014408381471002</v>
+        <v>1.012731829755896</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025495850642077</v>
+        <v>1.002332072236447</v>
       </c>
       <c r="D8">
-        <v>1.049431606667321</v>
+        <v>1.044333370282278</v>
       </c>
       <c r="E8">
-        <v>1.025841001245458</v>
+        <v>1.008394705654265</v>
       </c>
       <c r="F8">
-        <v>1.054651093770568</v>
+        <v>1.043519104436643</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041984218075941</v>
+        <v>1.054883384500296</v>
       </c>
       <c r="J8">
-        <v>1.030544538442227</v>
+        <v>1.023872841641046</v>
       </c>
       <c r="K8">
-        <v>1.052126111220558</v>
+        <v>1.054944524510923</v>
       </c>
       <c r="L8">
-        <v>1.028601212336681</v>
+        <v>1.01946215343532</v>
       </c>
       <c r="M8">
-        <v>1.057331490412541</v>
+        <v>1.054140164319542</v>
       </c>
       <c r="N8">
-        <v>1.014226115672942</v>
+        <v>1.011922202906118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02370166157443</v>
+        <v>0.9936387988242509</v>
       </c>
       <c r="D9">
-        <v>1.048079709468397</v>
+        <v>1.037929760085514</v>
       </c>
       <c r="E9">
-        <v>1.024330652301043</v>
+        <v>1.0016395679712</v>
       </c>
       <c r="F9">
-        <v>1.052975033444306</v>
+        <v>1.035875313316223</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041543130664632</v>
+        <v>1.052087828775111</v>
       </c>
       <c r="J9">
-        <v>1.029579061453318</v>
+        <v>1.019418204719596</v>
       </c>
       <c r="K9">
-        <v>1.051203378748355</v>
+        <v>1.050436031673863</v>
       </c>
       <c r="L9">
-        <v>1.027531772879144</v>
+        <v>1.014706100220092</v>
       </c>
       <c r="M9">
-        <v>1.056083212974213</v>
+        <v>1.048411969586518</v>
       </c>
       <c r="N9">
-        <v>1.013904785864855</v>
+        <v>1.010432750487668</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022509199422012</v>
+        <v>0.9875996519319536</v>
       </c>
       <c r="D10">
-        <v>1.0471804450863</v>
+        <v>1.033494754768724</v>
       </c>
       <c r="E10">
-        <v>1.023328979076868</v>
+        <v>0.9969813001981362</v>
       </c>
       <c r="F10">
-        <v>1.051861753992025</v>
+        <v>1.030589853495005</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041243729016145</v>
+        <v>1.050097658021967</v>
       </c>
       <c r="J10">
-        <v>1.02893556050365</v>
+        <v>1.016314047369994</v>
       </c>
       <c r="K10">
-        <v>1.05058656715347</v>
+        <v>1.047284486583145</v>
       </c>
       <c r="L10">
-        <v>1.026820469105103</v>
+        <v>1.011405272945629</v>
       </c>
       <c r="M10">
-        <v>1.055251621457484</v>
+        <v>1.044427923316919</v>
       </c>
       <c r="N10">
-        <v>1.01369049039534</v>
+        <v>1.009394623050929</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02199374259251</v>
+        <v>0.9849221050634818</v>
       </c>
       <c r="D11">
-        <v>1.046791554229574</v>
+        <v>1.031532463010653</v>
       </c>
       <c r="E11">
-        <v>1.022896507789351</v>
+        <v>0.9949246956141213</v>
       </c>
       <c r="F11">
-        <v>1.051380691260786</v>
+        <v>1.028253033246316</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041112829382625</v>
+        <v>1.049204452479743</v>
       </c>
       <c r="J11">
-        <v>1.028656969758631</v>
+        <v>1.014935878765432</v>
       </c>
       <c r="K11">
-        <v>1.050319107382211</v>
+        <v>1.045883254521604</v>
       </c>
       <c r="L11">
-        <v>1.026512877742201</v>
+        <v>1.009942963665678</v>
       </c>
       <c r="M11">
-        <v>1.054891697142015</v>
+        <v>1.042661107958456</v>
       </c>
       <c r="N11">
-        <v>1.01359768610007</v>
+        <v>1.008933691917185</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021802414154428</v>
+        <v>0.9839177169433155</v>
       </c>
       <c r="D12">
-        <v>1.046647179574003</v>
+        <v>1.030797056940616</v>
       </c>
       <c r="E12">
-        <v>1.022736059991687</v>
+        <v>0.9941545879162751</v>
       </c>
       <c r="F12">
-        <v>1.051202154894442</v>
+        <v>1.027377508375106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041064019572087</v>
+        <v>1.048867820621645</v>
       </c>
       <c r="J12">
-        <v>1.028553497518173</v>
+        <v>1.014418655126606</v>
       </c>
       <c r="K12">
-        <v>1.05021970594963</v>
+        <v>1.045357098477411</v>
       </c>
       <c r="L12">
-        <v>1.02639868737608</v>
+        <v>1.009394640239414</v>
       </c>
       <c r="M12">
-        <v>1.054758031193351</v>
+        <v>1.041998345426284</v>
       </c>
       <c r="N12">
-        <v>1.01356321298871</v>
+        <v>1.008760703254969</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021843448606304</v>
+        <v>0.98413361350722</v>
       </c>
       <c r="D13">
-        <v>1.046678144921775</v>
+        <v>1.03095510302775</v>
       </c>
       <c r="E13">
-        <v>1.022770467900091</v>
+        <v>0.9943200630810437</v>
       </c>
       <c r="F13">
-        <v>1.051240444646786</v>
+        <v>1.027565656761782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041074497927815</v>
+        <v>1.048940251199976</v>
       </c>
       <c r="J13">
-        <v>1.028575692246748</v>
+        <v>1.014529844913511</v>
       </c>
       <c r="K13">
-        <v>1.050241030356491</v>
+        <v>1.045470220558246</v>
       </c>
       <c r="L13">
-        <v>1.026423178733339</v>
+        <v>1.009512494061742</v>
       </c>
       <c r="M13">
-        <v>1.054786701787759</v>
+        <v>1.042140807591736</v>
       </c>
       <c r="N13">
-        <v>1.01357060764666</v>
+        <v>1.008797891438194</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021977924555558</v>
+        <v>0.9848392850852851</v>
       </c>
       <c r="D14">
-        <v>1.046779618598109</v>
+        <v>1.03147180855102</v>
       </c>
       <c r="E14">
-        <v>1.022883241210337</v>
+        <v>0.9948611661148961</v>
       </c>
       <c r="F14">
-        <v>1.051365930279961</v>
+        <v>1.028180817322433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041108798575199</v>
+        <v>1.049176726218068</v>
       </c>
       <c r="J14">
-        <v>1.028648416524362</v>
+        <v>1.014893234395564</v>
       </c>
       <c r="K14">
-        <v>1.050310891941001</v>
+        <v>1.045839879153647</v>
       </c>
       <c r="L14">
-        <v>1.026503437442023</v>
+        <v>1.009897745434927</v>
       </c>
       <c r="M14">
-        <v>1.054880647732381</v>
+        <v>1.042606457503889</v>
       </c>
       <c r="N14">
-        <v>1.01359483656902</v>
+        <v>1.008919429275924</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022060797595399</v>
+        <v>0.9852727570739178</v>
       </c>
       <c r="D15">
-        <v>1.046842150109207</v>
+        <v>1.031789296439417</v>
       </c>
       <c r="E15">
-        <v>1.022952749977446</v>
+        <v>0.9951937291323411</v>
       </c>
       <c r="F15">
-        <v>1.051443266297988</v>
+        <v>1.028558831974367</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041129907471581</v>
+        <v>1.049321778843549</v>
       </c>
       <c r="J15">
-        <v>1.028693225553792</v>
+        <v>1.015116420946032</v>
       </c>
       <c r="K15">
-        <v>1.050353928732382</v>
+        <v>1.046066880385381</v>
       </c>
       <c r="L15">
-        <v>1.026552895842193</v>
+        <v>1.01013442222518</v>
       </c>
       <c r="M15">
-        <v>1.054938534426762</v>
+        <v>1.042892493076004</v>
       </c>
       <c r="N15">
-        <v>1.013609764628109</v>
+        <v>1.008994075152135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022543427447125</v>
+        <v>0.9877759977824493</v>
       </c>
       <c r="D16">
-        <v>1.047206265134796</v>
+        <v>1.033624083534763</v>
       </c>
       <c r="E16">
-        <v>1.023357707487512</v>
+        <v>0.9971169358995274</v>
       </c>
       <c r="F16">
-        <v>1.051893701694854</v>
+        <v>1.030743901259751</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041252389996923</v>
+        <v>1.050156263546352</v>
       </c>
       <c r="J16">
-        <v>1.028954050809598</v>
+        <v>1.016404778114226</v>
       </c>
       <c r="K16">
-        <v>1.050604309783654</v>
+        <v>1.047376695757983</v>
       </c>
       <c r="L16">
-        <v>1.026840891650843</v>
+        <v>1.01150160935198</v>
       </c>
       <c r="M16">
-        <v>1.055275511987177</v>
+        <v>1.044544283656039</v>
       </c>
       <c r="N16">
-        <v>1.013696649279117</v>
+        <v>1.009424967702433</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022846407254881</v>
+        <v>0.9893291705914518</v>
       </c>
       <c r="D17">
-        <v>1.047434799312235</v>
+        <v>1.034763620568169</v>
       </c>
       <c r="E17">
-        <v>1.0236120653534</v>
+        <v>0.9983125517188906</v>
       </c>
       <c r="F17">
-        <v>1.052176515846446</v>
+        <v>1.032101439852023</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041328884255898</v>
+        <v>1.050671203974899</v>
       </c>
       <c r="J17">
-        <v>1.02911767377914</v>
+        <v>1.01720368045713</v>
       </c>
       <c r="K17">
-        <v>1.050761267568221</v>
+        <v>1.048188388424132</v>
       </c>
       <c r="L17">
-        <v>1.027021654058557</v>
+        <v>1.012350232847897</v>
       </c>
       <c r="M17">
-        <v>1.05548693335598</v>
+        <v>1.045569090137364</v>
       </c>
       <c r="N17">
-        <v>1.013751146599519</v>
+        <v>1.009692155439702</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023023215720863</v>
+        <v>0.990229104477615</v>
       </c>
       <c r="D18">
-        <v>1.047568147199764</v>
+        <v>1.035424265970069</v>
       </c>
       <c r="E18">
-        <v>1.023760549413171</v>
+        <v>0.999006136488556</v>
       </c>
       <c r="F18">
-        <v>1.052341572367024</v>
+        <v>1.032888640490882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041373380741467</v>
+        <v>1.050968534891302</v>
       </c>
       <c r="J18">
-        <v>1.029213116966615</v>
+        <v>1.017666395266861</v>
       </c>
       <c r="K18">
-        <v>1.050852781977905</v>
+        <v>1.048658316937567</v>
       </c>
       <c r="L18">
-        <v>1.027127128966363</v>
+        <v>1.012842047391798</v>
       </c>
       <c r="M18">
-        <v>1.055610267203743</v>
+        <v>1.046162834995435</v>
       </c>
       <c r="N18">
-        <v>1.013782932683507</v>
+        <v>1.009846904590624</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023083517278218</v>
+        <v>0.990534952687011</v>
       </c>
       <c r="D19">
-        <v>1.047613623421087</v>
+        <v>1.035648852612918</v>
       </c>
       <c r="E19">
-        <v>1.023811199173825</v>
+        <v>0.9992419942568274</v>
       </c>
       <c r="F19">
-        <v>1.052397868555588</v>
+        <v>1.033156278944873</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041388532285924</v>
+        <v>1.051069407792162</v>
       </c>
       <c r="J19">
-        <v>1.029245661379605</v>
+        <v>1.017823619923234</v>
       </c>
       <c r="K19">
-        <v>1.050883979803093</v>
+        <v>1.04881795895649</v>
       </c>
       <c r="L19">
-        <v>1.027163099797114</v>
+        <v>1.013009210946957</v>
       </c>
       <c r="M19">
-        <v>1.055652323403197</v>
+        <v>1.046364613535989</v>
       </c>
       <c r="N19">
-        <v>1.013793770684814</v>
+        <v>1.009899485858928</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022813891534643</v>
+        <v>0.989163154057607</v>
       </c>
       <c r="D20">
-        <v>1.047410274801611</v>
+        <v>1.034641777198551</v>
       </c>
       <c r="E20">
-        <v>1.023584762588006</v>
+        <v>0.998184668052789</v>
       </c>
       <c r="F20">
-        <v>1.052146162637606</v>
+        <v>1.031956269601168</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041320689687824</v>
+        <v>1.050616269566029</v>
       </c>
       <c r="J20">
-        <v>1.029100118089507</v>
+        <v>1.017118305550605</v>
       </c>
       <c r="K20">
-        <v>1.05074443123818</v>
+        <v>1.04810166663595</v>
       </c>
       <c r="L20">
-        <v>1.027002255892033</v>
+        <v>1.012259513167376</v>
       </c>
       <c r="M20">
-        <v>1.055464248243667</v>
+        <v>1.045459554190749</v>
       </c>
       <c r="N20">
-        <v>1.013745299681829</v>
+        <v>1.009663602632094</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0219383209934</v>
+        <v>0.9846317572665406</v>
       </c>
       <c r="D21">
-        <v>1.046749734994619</v>
+        <v>1.03131983362178</v>
       </c>
       <c r="E21">
-        <v>1.022850026984415</v>
+        <v>0.9947019978117178</v>
       </c>
       <c r="F21">
-        <v>1.051328973680937</v>
+        <v>1.027999877997748</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041098703067619</v>
+        <v>1.049107225342074</v>
       </c>
       <c r="J21">
-        <v>1.028627000784434</v>
+        <v>1.014786373465791</v>
       </c>
       <c r="K21">
-        <v>1.050290320950346</v>
+        <v>1.04573118207847</v>
       </c>
       <c r="L21">
-        <v>1.026479801508274</v>
+        <v>1.009784442470146</v>
       </c>
       <c r="M21">
-        <v>1.054852982261275</v>
+        <v>1.042469516187692</v>
       </c>
       <c r="N21">
-        <v>1.013587701791833</v>
+        <v>1.008883689028333</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021388598086351</v>
+        <v>0.981725595909368</v>
       </c>
       <c r="D22">
-        <v>1.046334872349068</v>
+        <v>1.029193331400738</v>
       </c>
       <c r="E22">
-        <v>1.022389177315232</v>
+        <v>0.9924763383737125</v>
       </c>
       <c r="F22">
-        <v>1.050816053682144</v>
+        <v>1.025468642750395</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040958044850485</v>
+        <v>1.048130266662584</v>
       </c>
       <c r="J22">
-        <v>1.028329584540765</v>
+        <v>1.013289366046804</v>
       </c>
       <c r="K22">
-        <v>1.050004486552596</v>
+        <v>1.044207829137219</v>
       </c>
       <c r="L22">
-        <v>1.02615167755326</v>
+        <v>1.008198328534753</v>
       </c>
       <c r="M22">
-        <v>1.054468806248915</v>
+        <v>1.04055189978872</v>
       </c>
       <c r="N22">
-        <v>1.013488605510493</v>
+        <v>1.008383003670782</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021679941743979</v>
+        <v>0.9832717685631361</v>
       </c>
       <c r="D23">
-        <v>1.046554756003802</v>
+        <v>1.030324298659294</v>
       </c>
       <c r="E23">
-        <v>1.022633376767795</v>
+        <v>0.9936596994269055</v>
       </c>
       <c r="F23">
-        <v>1.051087878172724</v>
+        <v>1.026814739936394</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041032713094266</v>
+        <v>1.048650885972367</v>
       </c>
       <c r="J23">
-        <v>1.028487245200175</v>
+        <v>1.014085948226744</v>
       </c>
       <c r="K23">
-        <v>1.050156042322806</v>
+        <v>1.045018571288139</v>
       </c>
       <c r="L23">
-        <v>1.026325587286058</v>
+        <v>1.009042063053294</v>
       </c>
       <c r="M23">
-        <v>1.054672450264106</v>
+        <v>1.041572112244582</v>
       </c>
       <c r="N23">
-        <v>1.013541138944315</v>
+        <v>1.008649426992634</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022828583725153</v>
+        <v>0.9892381883112977</v>
       </c>
       <c r="D24">
-        <v>1.047421356225006</v>
+        <v>1.034696845402183</v>
       </c>
       <c r="E24">
-        <v>1.023597099157561</v>
+        <v>0.9982424648952115</v>
       </c>
       <c r="F24">
-        <v>1.052159877650414</v>
+        <v>1.032021880072553</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041324392835391</v>
+        <v>1.050641101399978</v>
       </c>
       <c r="J24">
-        <v>1.029108050735701</v>
+        <v>1.017156892891731</v>
       </c>
       <c r="K24">
-        <v>1.050752038963723</v>
+        <v>1.048140863338503</v>
       </c>
       <c r="L24">
-        <v>1.027011020967411</v>
+        <v>1.012300515278387</v>
       </c>
       <c r="M24">
-        <v>1.055474498622303</v>
+        <v>1.045509061138477</v>
       </c>
       <c r="N24">
-        <v>1.013747941656277</v>
+        <v>1.009676507802187</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024164864788166</v>
+        <v>0.9959276316386785</v>
       </c>
       <c r="D25">
-        <v>1.048428863699417</v>
+        <v>1.039613676044277</v>
       </c>
       <c r="E25">
-        <v>1.024720201095</v>
+        <v>1.003412321584779</v>
       </c>
       <c r="F25">
-        <v>1.053407623428549</v>
+        <v>1.037883804308577</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041658108286049</v>
+        <v>1.052832372684789</v>
       </c>
       <c r="J25">
-        <v>1.029828639633769</v>
+        <v>1.020592828782751</v>
       </c>
       <c r="K25">
-        <v>1.051442225894203</v>
+        <v>1.051626660064393</v>
       </c>
       <c r="L25">
-        <v>1.027807963065092</v>
+        <v>1.015957895604085</v>
       </c>
       <c r="M25">
-        <v>1.056405826035482</v>
+        <v>1.049921169369985</v>
       </c>
       <c r="N25">
-        <v>1.013987872699545</v>
+        <v>1.010825543906267</v>
       </c>
     </row>
   </sheetData>
